--- a/데이타베이스 초안.xlsx
+++ b/데이타베이스 초안.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D7E6D6-3433-4BC7-BB88-D196250B3E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1C89D8-1261-42AC-A2AC-790314907FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF5416E2-14DC-452D-9D6C-88C6624D0F5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF5416E2-14DC-452D-9D6C-88C6624D0F5F}"/>
   </bookViews>
   <sheets>
     <sheet name="안전시설물" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +184,158 @@
   </si>
   <si>
     <t>요청자 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacilityCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requset_NewToMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_ToCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photolink1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photolink2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_edited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_requested</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facilityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requester_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requester_contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도에 보이는지 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newLatitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newLongitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager_agreed_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager_agreed_edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permlevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 생성일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,12 +360,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,8 +388,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,200 +729,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394E7D98-1A85-46C6-B45D-E3DEA318CB9D}">
-  <dimension ref="A2:K15"/>
+  <dimension ref="A2:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="2.19921875" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" customWidth="1"/>
-    <col min="4" max="4" width="1.8984375" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="17.09765625" customWidth="1"/>
-    <col min="8" max="8" width="2.19921875" customWidth="1"/>
-    <col min="9" max="9" width="17.59765625" customWidth="1"/>
-    <col min="10" max="10" width="3.19921875" customWidth="1"/>
-    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="2.125" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="1.875" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1"/>
+    <col min="13" max="13" width="22.625" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="2.125" customWidth="1"/>
+    <col min="17" max="17" width="18.75" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="3.125" customWidth="1"/>
+    <col min="21" max="22" width="21.5" customWidth="1"/>
+    <col min="23" max="23" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="R8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" t="s">
+        <v>59</v>
+      </c>
+      <c r="U12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>33</v>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -777,13 +1143,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="10.296875" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
